--- a/with logs for unschedule with saturday sunday/excel_schedules/room_202_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/room_202_genetic_schedule.xlsx
@@ -651,7 +651,7 @@
           <t>5:30 PM - 6:00 PM</t>
         </is>
       </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="G21" s="2" t="inlineStr">
         <is>
           <t>ST 407 - Software Testing
 3A
@@ -665,7 +665,7 @@
           <t>6:00 PM - 6:30 PM</t>
         </is>
       </c>
-      <c r="B22" s="2" t="n"/>
+      <c r="G22" s="2" t="n"/>
     </row>
     <row r="23" ht="50" customHeight="1">
       <c r="A23" s="2" t="inlineStr">
@@ -704,7 +704,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="G21:G22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
